--- a/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02719298245614035</v>
+        <v>0.02714535901926445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07894736842105267</v>
+        <v>0.07880910683012263</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1245614035087719</v>
+        <v>0.1243432574430822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1602339181286549</v>
+        <v>0.1599532983070636</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2169590643274852</v>
+        <v>0.2171628721541154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.0543859649122807</v>
+        <v>0.0542907180385289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1614035087719298</v>
+        <v>0.1611208406304729</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2368421052631579</v>
+        <v>0.2364273204903678</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2894736842105263</v>
+        <v>0.2889667250437828</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.3824561403508772</v>
+        <v>0.3835376532399299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.091228070175438</v>
+        <v>8.085814360770579</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>28.32631578947369</v>
+        <v>28.2907180385289</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5377192982456118</v>
+        <v>0.5373613543490929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9789473684210527</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.764912280701755</v>
+        <v>2.76707530647986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.2859649122807</v>
+        <v>26.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1976608187134501</v>
+        <v>0.1973146526561586</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5418128654970739</v>
+        <v>0.5414477524810253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4070175438596491</v>
+        <v>0.4063047285464098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.980701754385965</v>
+        <v>0.9807355516637478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.763157894736842</v>
+        <v>2.765323992994746</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.16491228070175</v>
+        <v>18.14535901926445</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5418128654970739</v>
+        <v>0.5414477524810253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.980701754385965</v>
+        <v>0.9807355516637478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.76140350877193</v>
+        <v>2.763572679509632</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.13508771929824</v>
+        <v>18.11558669001751</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5418128654970739</v>
+        <v>0.5414477524810253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.980701754385965</v>
+        <v>0.9807355516637478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.76140350877193</v>
+        <v>2.763572679509632</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.13508771929824</v>
+        <v>18.11558669001751</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06549707602339186</v>
+        <v>0.06538237011091656</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1950292397660816</v>
+        <v>0.1946876824284878</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3923976608187148</v>
+        <v>0.3917104495037959</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4845029239766067</v>
+        <v>0.484238178633974</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5368421052631557</v>
+        <v>0.536485697606536</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1368421052631579</v>
+        <v>0.1366024518388791</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4017543859649123</v>
+        <v>0.4010507880910683</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8192982456140351</v>
+        <v>0.8178633975481612</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9771929824561404</v>
+        <v>0.9772329246935202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.749122807017544</v>
+        <v>2.751313485113835</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>18.92105263157895</v>
+        <v>18.90017513134851</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04035087719298244</v>
+        <v>0.04028021015761819</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1029239766081872</v>
+        <v>0.1027437244600117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2154970760233915</v>
+        <v>0.2151196730881491</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2535087719298253</v>
+        <v>0.25306479859895</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2710526315789481</v>
+        <v>0.2705779334500883</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.08596491228070176</v>
+        <v>0.08581436077057793</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.212280701754386</v>
+        <v>0.2119089316987741</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.456140350877193</v>
+        <v>0.4553415061295972</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5333333333333333</v>
+        <v>0.532399299474606</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5684210526315789</v>
+        <v>0.5674255691768827</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.631578947368421</v>
+        <v>5.649737302977233</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>42.6578947368421</v>
+        <v>42.64098073555166</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>17.73333333333333</v>
+        <v>17.74080560420315</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>52.38421052631579</v>
+        <v>52.36777583187391</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5377192982456118</v>
+        <v>0.5373613543490929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9789473684210527</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.764912280701755</v>
+        <v>2.76707530647986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.2859649122807</v>
+        <v>26.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5377192982456118</v>
+        <v>0.5373613543490929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9789473684210527</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.764912280701755</v>
+        <v>2.76707530647986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.2859649122807</v>
+        <v>26.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06549707602339186</v>
+        <v>0.06538237011091656</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1950292397660816</v>
+        <v>0.1946876824284878</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3923976608187148</v>
+        <v>0.3917104495037959</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4845029239766067</v>
+        <v>0.484238178633974</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5342105263157872</v>
+        <v>0.5338587273788653</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1368421052631579</v>
+        <v>0.1366024518388791</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4017543859649123</v>
+        <v>0.4010507880910683</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8192982456140351</v>
+        <v>0.8178633975481612</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9771929824561404</v>
+        <v>0.9772329246935202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.749122807017544</v>
+        <v>2.751313485113835</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.99473684210526</v>
+        <v>26.95971978984238</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02192982456140351</v>
+        <v>0.02189141856392294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.05584795321637426</v>
+        <v>0.05575014594279041</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1883040935672511</v>
+        <v>0.1879743140688847</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2587719298245623</v>
+        <v>0.2583187390542916</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.267251461988305</v>
+        <v>0.2667834208990085</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.04385964912280702</v>
+        <v>0.04378283712784588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1157894736842105</v>
+        <v>0.1155866900175131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3982456140350877</v>
+        <v>0.3975481611208406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5403508771929825</v>
+        <v>0.5394045534150613</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5491228070175439</v>
+        <v>0.5481611208406305</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.433333333333334</v>
+        <v>7.437828371278459</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>34.97719298245614</v>
+        <v>34.94570928196147</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06461988304093572</v>
+        <v>0.06450671336835964</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1611111111111109</v>
+        <v>0.1608289550496203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3883040935672528</v>
+        <v>0.3876240513718636</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4763157894736836</v>
+        <v>0.4760653823701103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5175438596491204</v>
+        <v>0.5172212492702837</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1350877192982456</v>
+        <v>0.1348511383537653</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.331578947368421</v>
+        <v>0.3309982486865149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8105263157894737</v>
+        <v>0.809106830122592</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9754385964912281</v>
+        <v>0.9754816112084063</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.835087719298246</v>
+        <v>2.837127845884413</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>28.87719298245614</v>
+        <v>28.84063047285464</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06637426900584799</v>
+        <v>0.06625802685347348</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1929824561403506</v>
+        <v>0.1926444833625216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3883040935672528</v>
+        <v>0.3882078225335682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4631578947368423</v>
+        <v>0.4629305312317573</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5017543859649098</v>
+        <v>0.5014594279042591</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1385964912280702</v>
+        <v>0.138353765323993</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4035087719298245</v>
+        <v>0.4028021015761821</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8192982456140351</v>
+        <v>0.819614711033275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9456140350877194</v>
+        <v>0.9457092819614711</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9754385964912281</v>
+        <v>0.9754816112084063</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.745614035087719</v>
+        <v>2.746059544658494</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>21.26140350877193</v>
+        <v>21.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5377192982456118</v>
+        <v>0.5373613543490929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9789473684210527</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.764912280701755</v>
+        <v>2.76707530647986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.2859649122807</v>
+        <v>26.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06725146198830413</v>
+        <v>0.06713368359603039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1982456140350875</v>
+        <v>0.1978984238178632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3906432748538025</v>
+        <v>0.389959136018682</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4868421052631564</v>
+        <v>0.4865732632807924</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5377192982456118</v>
+        <v>0.5373613543490929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1403508771929824</v>
+        <v>0.1401050788091068</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4087719298245614</v>
+        <v>0.4080560420315236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8175438596491228</v>
+        <v>0.8161120840630472</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9789473684210527</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.764912280701755</v>
+        <v>2.76707530647986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>26.2859649122807</v>
+        <v>26.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06461988304093572</v>
+        <v>0.06450671336835964</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1611111111111109</v>
+        <v>0.1608289550496203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3883040935672528</v>
+        <v>0.3876240513718636</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4763157894736836</v>
+        <v>0.4760653823701103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5175438596491204</v>
+        <v>0.5172212492702837</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1350877192982456</v>
+        <v>0.1348511383537653</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.331578947368421</v>
+        <v>0.3309982486865149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8105263157894737</v>
+        <v>0.809106830122592</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9596491228070175</v>
+        <v>0.9597197898423818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9754385964912281</v>
+        <v>0.9754816112084063</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.835087719298246</v>
+        <v>2.837127845884413</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>21.4859649122807</v>
+        <v>21.46234676007005</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01228070175438596</v>
+        <v>0.01225919439579685</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01228070175438596</v>
+        <v>0.01225919439579685</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02456140350877193</v>
+        <v>0.0245183887915937</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.02456140350877193</v>
+        <v>0.0245183887915937</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.02456140350877193</v>
+        <v>0.0245183887915937</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02456140350877193</v>
+        <v>0.0245183887915937</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.02456140350877193</v>
+        <v>0.0245183887915937</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.04912280701754386</v>
+        <v>0.04903677758318739</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.04912280701754386</v>
+        <v>0.04903677758318739</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.04912280701754386</v>
+        <v>0.04903677758318739</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>11.77017543859649</v>
+        <v>11.78108581436077</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>36.39473684210526</v>
+        <v>36.38879159369527</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06461988304093572</v>
+        <v>0.06450671336835964</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1523391812865495</v>
+        <v>0.1520723876240512</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3783625730994165</v>
+        <v>0.3776999416228851</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4608187134502928</v>
+        <v>0.4605954465849391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4824561403508761</v>
+        <v>0.4821949795680082</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1350877192982456</v>
+        <v>0.1348511383537653</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.312280701754386</v>
+        <v>0.3117338003502627</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7912280701754386</v>
+        <v>0.7898423817863398</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9385964912280702</v>
+        <v>0.9387040280210157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9438596491228071</v>
+        <v>0.9439579684763573</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.315789473684211</v>
+        <v>3.316987740805604</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>34.31754385964912</v>
+        <v>34.29071803852889</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02719298245614035</v>
+        <v>0.02714535901926445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.07894736842105267</v>
+        <v>0.07880910683012263</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1245614035087719</v>
+        <v>0.1243432574430822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1602339181286549</v>
+        <v>0.1599532983070636</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.216081871345029</v>
+        <v>0.2162872154115585</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.0543859649122807</v>
+        <v>0.0542907180385289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1614035087719298</v>
+        <v>0.1611208406304729</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2368421052631579</v>
+        <v>0.2364273204903678</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2894736842105263</v>
+        <v>0.2889667250437828</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.3807017543859649</v>
+        <v>0.3817863397548161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.098245614035088</v>
+        <v>8.092819614711033</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>28.33333333333333</v>
+        <v>28.29772329246935</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06637426900584799</v>
+        <v>0.06625802685347348</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1999999999999998</v>
+        <v>0.199649737302977</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3903508771929837</v>
+        <v>0.3902510215995343</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4809941520467826</v>
+        <v>0.4807355516637467</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5201754385964888</v>
+        <v>0.5198482194979543</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1385964912280702</v>
+        <v>0.138353765323993</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4140350877192983</v>
+        <v>0.4133099824868651</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.8192982456140351</v>
+        <v>0.819614711033275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9631578947368421</v>
+        <v>0.9632224168126094</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9842105263157894</v>
+        <v>0.9842381786339754</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.707017543859649</v>
+        <v>2.70753064798599</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>29.28771929824561</v>
+        <v>29.25218914185639</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>17.73333333333333</v>
+        <v>17.74080560420315</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>52.38421052631579</v>
+        <v>52.36777583187391</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03099415204678362</v>
+        <v>0.03093987157034442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1178362573099415</v>
+        <v>0.1176298890834792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3450292397660831</v>
+        <v>0.3444249854057222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4339181286549721</v>
+        <v>0.4331582019848233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4558479532163751</v>
+        <v>0.4550496205487458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06315789473684211</v>
+        <v>0.06304728546409807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.243859649122807</v>
+        <v>0.2434325744308231</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7228070175438597</v>
+        <v>0.7215411558669002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8807017543859649</v>
+        <v>0.8791593695271454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8824561403508772</v>
+        <v>0.8809106830122592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.080701754385965</v>
+        <v>6.080560420315236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>43.77368421052632</v>
+        <v>43.71103327495621</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04473684210526314</v>
+        <v>0.04465849387040279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1476608187134501</v>
+        <v>0.1474022183304143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3070175438596501</v>
+        <v>0.3064798598949222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3643274853801181</v>
+        <v>0.3636894337419742</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3941520467836268</v>
+        <v>0.3934617629889094</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.09473684210526316</v>
+        <v>0.09457092819614711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3070175438596491</v>
+        <v>0.3064798598949212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6491228070175439</v>
+        <v>0.6479859894921191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.7666666666666667</v>
+        <v>0.7653239929947461</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.8245614035087719</v>
+        <v>0.8231173380035026</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.650877192982456</v>
+        <v>3.660245183887916</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>37.39824561403509</v>
+        <v>37.37828371278459</v>
       </c>
     </row>
   </sheetData>
